--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1710,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1726,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -905,7 +1206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1037,7 +1338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300339-润和软件.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>159851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>华宝中证金融科技主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.56</t>
+          <t>98.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1027</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -677,32 +694,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159851</t>
+          <t>516100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证金融科技主题ETF</t>
+          <t>华夏中证金融科技主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.27</t>
+          <t>97.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0937</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002051</t>
+          <t>516860</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合C</t>
+          <t>博时中证金融科技主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.56</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0464</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>560660</t>
+          <t>002135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华中证云计算50ETF</t>
+          <t>广发鑫源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.03</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516100</t>
+          <t>002020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证金融科技主题ETF</t>
+          <t>国都创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.79</t>
+          <t>83.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516860</t>
+          <t>002136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证金融科技主题ETF</t>
+          <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -867,6 +884,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1206,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1338,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
